--- a/static/audit_trail_logs.xlsx
+++ b/static/audit_trail_logs.xlsx
@@ -1,40 +1,435 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="128">
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Performed By</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>uploaded</t>
+  </si>
+  <si>
+    <t>updated amendment</t>
+  </si>
+  <si>
+    <t>amendment_raised</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>approved</t>
+  </si>
+  <si>
+    <t>dashboard_report.pdf</t>
+  </si>
+  <si>
+    <t>dashboard_report (1).pdf</t>
+  </si>
+  <si>
+    <t>Cervical Assessment Results-23March2025 (1).docx</t>
+  </si>
+  <si>
+    <t>[Updated] Proposed changes GHS JMHD TB Referral System.docx</t>
+  </si>
+  <si>
+    <t>[Updated] Proposed changes GHS JMHD TB Referral System (1).docx</t>
+  </si>
+  <si>
+    <t>Adwoa_Beauty_Group_2_WD.docx</t>
+  </si>
+  <si>
+    <t>BHDSS ROUND 8 DASHBOARD-01052025.pdf</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>research.officer</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>head.department</t>
+  </si>
+  <si>
+    <t>wdormechele</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:54</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:53</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:52</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:27</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:12</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:05</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:04</t>
+  </si>
+  <si>
+    <t>2025-05-04 16:01</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:58</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:55</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:48</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:47</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:44</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:43</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:16</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:15</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:14</t>
+  </si>
+  <si>
+    <t>2025-05-04 15:12</t>
+  </si>
+  <si>
+    <t>2025-05-04 14:48</t>
+  </si>
+  <si>
+    <t>2025-05-04 14:41</t>
+  </si>
+  <si>
+    <t>2025-05-04 14:17</t>
+  </si>
+  <si>
+    <t>2025-05-04 14:16</t>
+  </si>
+  <si>
+    <t>2025-05-04 14:14</t>
+  </si>
+  <si>
+    <t>2025-05-04 13:44</t>
+  </si>
+  <si>
+    <t>2025-05-04 13:42</t>
+  </si>
+  <si>
+    <t>2025-05-04 13:40</t>
+  </si>
+  <si>
+    <t>2025-05-04 13:37</t>
+  </si>
+  <si>
+    <t>2025-05-04 13:34</t>
+  </si>
+  <si>
+    <t>2025-05-04 13:04</t>
+  </si>
+  <si>
+    <t>2025-05-04 08:54</t>
+  </si>
+  <si>
+    <t>2025-05-04 08:49</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:54</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:53</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:52</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:50</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:47</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:46</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:43</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:42</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:41</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:39</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:15</t>
+  </si>
+  <si>
+    <t>2025-05-04 01:14</t>
+  </si>
+  <si>
+    <t>2025-05-04 00:19</t>
+  </si>
+  <si>
+    <t>2025-05-04 00:14</t>
+  </si>
+  <si>
+    <t>2025-05-04 00:12</t>
+  </si>
+  <si>
+    <t>2025-05-04 00:11</t>
+  </si>
+  <si>
+    <t>2025-05-04 00:08</t>
+  </si>
+  <si>
+    <t>2025-05-04 00:00</t>
+  </si>
+  <si>
+    <t>2025-05-03 23:49</t>
+  </si>
+  <si>
+    <t>2025-05-03 13:38</t>
+  </si>
+  <si>
+    <t>2025-05-03 12:06</t>
+  </si>
+  <si>
+    <t>2025-05-03 11:36</t>
+  </si>
+  <si>
+    <t>2025-05-03 11:06</t>
+  </si>
+  <si>
+    <t>2025-05-03 03:43</t>
+  </si>
+  <si>
+    <t>2025-05-03 02:50</t>
+  </si>
+  <si>
+    <t>2025-05-03 02:24</t>
+  </si>
+  <si>
+    <t>2025-05-03 01:51</t>
+  </si>
+  <si>
+    <t>2025-05-03 01:08</t>
+  </si>
+  <si>
+    <t>2025-05-03 01:02</t>
+  </si>
+  <si>
+    <t>2025-05-03 00:58</t>
+  </si>
+  <si>
+    <t>2025-05-02 23:12</t>
+  </si>
+  <si>
+    <t>2025-05-02 23:11</t>
+  </si>
+  <si>
+    <t>2025-05-02 23:02</t>
+  </si>
+  <si>
+    <t>2025-05-02 22:32</t>
+  </si>
+  <si>
+    <t>2025-05-02 22:31</t>
+  </si>
+  <si>
+    <t>2025-05-02 22:21</t>
+  </si>
+  <si>
+    <t>2025-05-02 22:19</t>
+  </si>
+  <si>
+    <t>2025-05-02 22:14</t>
+  </si>
+  <si>
+    <t>2025-05-02 21:46</t>
+  </si>
+  <si>
+    <t>2025-05-02 20:53</t>
+  </si>
+  <si>
+    <t>2025-05-02 19:31</t>
+  </si>
+  <si>
+    <t>2025-05-02 18:05</t>
+  </si>
+  <si>
+    <t>2025-05-02 17:43</t>
+  </si>
+  <si>
+    <t>2025-05-02 17:27</t>
+  </si>
+  <si>
+    <t>2025-05-02 15:55</t>
+  </si>
+  <si>
+    <t>2025-05-01 23:09</t>
+  </si>
+  <si>
+    <t>2025-05-01 23:01</t>
+  </si>
+  <si>
+    <t>2025-05-01 22:59</t>
+  </si>
+  <si>
+    <t>2025-05-01 22:36</t>
+  </si>
+  <si>
+    <t>2025-05-01 22:25</t>
+  </si>
+  <si>
+    <t>2025-05-01 22:15</t>
+  </si>
+  <si>
+    <t>2025-05-01 22:13</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>Assigned SOP to 0 users</t>
+  </si>
+  <si>
+    <t>Assigned SOP to 4 users</t>
+  </si>
+  <si>
+    <t>Assigned SOP to 1 users</t>
+  </si>
+  <si>
+    <t>Uploaded version 1.1</t>
+  </si>
+  <si>
+    <t>Uploaded version 1.0</t>
+  </si>
+  <si>
+    <t>Updated amendment ID 9 for dashboard_report.pdf</t>
+  </si>
+  <si>
+    <t>Amendment for SOP section: page 4</t>
+  </si>
+  <si>
+    <t>Amendment for SOP section: Table 2, page 1</t>
+  </si>
+  <si>
+    <t>Updated amendment ID 6 for Cervical Assessment Results-23March2025 (1).docx</t>
+  </si>
+  <si>
+    <t>Amendment for SOP section: Chapter 1</t>
+  </si>
+  <si>
+    <t>Uploaded version 1.2</t>
+  </si>
+  <si>
+    <t>Deleted SOP Cervical Assessment Results-23March2025 (1).docx (version 1.0)</t>
+  </si>
+  <si>
+    <t>Approved version 1.0</t>
+  </si>
+  <si>
+    <t>Amendment for SOP section: Membership</t>
+  </si>
+  <si>
+    <t>Deleted SOP BHDSS ROUND 8 DASHBOARD-01052025.pdf (version 1.0)</t>
+  </si>
+  <si>
+    <t>Updated amendment ID 1 for Cervical Assessment Results-23March2025 (1).docx</t>
+  </si>
+  <si>
+    <t>Updated amendment ID 2 for dashboard_report.pdf</t>
+  </si>
+  <si>
+    <t>Amendment for SOP section: Human rights</t>
+  </si>
+  <si>
+    <t>Amendment for SOP section: demographics</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +437,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -408,19 +754,1527 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>